--- a/rsc/捐赠证明.xlsx
+++ b/rsc/捐赠证明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4AA47-D4EE-4789-85DE-C5F4CA2C5848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48B8AD-E0CE-456E-9C98-EB50B74D0D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1944" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>捐赠证明编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书籍编号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Ac-01
+Ac-02
+Bb-01
+Ac-03
+Af-03
+Ac-04
+Bd-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +97,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +111,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -434,8 +450,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rsc/捐赠证明.xlsx
+++ b/rsc/捐赠证明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48B8AD-E0CE-456E-9C98-EB50B74D0D6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DFF37-7BB9-4DA0-ACF0-2CB5A523DA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003</t>
+    <t>001</t>
   </si>
   <si>
-    <t>Ac-01
-Ac-02
-Bb-01
-Ac-03
-Af-03
-Ac-04
-Bd-03</t>
+    <t>Aa-01
+Bb-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +92,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -111,9 +106,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,8 +442,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">

--- a/rsc/捐赠证明.xlsx
+++ b/rsc/捐赠证明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DFF37-7BB9-4DA0-ACF0-2CB5A523DA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD8195-BE56-461D-B5F6-C6168E605344}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>捐赠证明编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书籍编号列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Aa-01
-Bb-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,13 +434,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/rsc/捐赠证明.xlsx
+++ b/rsc/捐赠证明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD8195-BE56-461D-B5F6-C6168E605344}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C686871E-AD53-4C0F-B196-4A3ACF52A672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,6 +98,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +420,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,6 +438,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="4"/>
     </row>
   </sheetData>

--- a/rsc/捐赠证明.xlsx
+++ b/rsc/捐赠证明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C686871E-AD53-4C0F-B196-4A3ACF52A672}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507319DF-2BC3-43B7-8F92-79C3E6A5120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9420" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F74059E-5D75-4824-9EB2-8C8E85D2E5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -96,12 +96,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,11 +411,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61F2435-7D8D-4A4E-9A73-D82C0061F394}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -437,10 +429,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
